--- a/Capstone_Two/Capstone_Two_Metrics.xlsx
+++ b/Capstone_Two/Capstone_Two_Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/butler/Documents/hp/Capstone_Two/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B62A57A-D687-2042-99F4-B8315AC46B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A2BF0D-D8D6-F147-99DA-5DF757A09F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{75C9709F-0D81-0845-B77B-C6D4C2512521}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{75C9709F-0D81-0845-B77B-C6D4C2512521}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="64">
   <si>
     <t>Asthma data modeling</t>
   </si>
@@ -84,12 +84,161 @@
   </si>
   <si>
     <t>Stroke data modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Forest </t>
+  </si>
+  <si>
+    <t>without tuning</t>
+  </si>
+  <si>
+    <t>with tuning</t>
+  </si>
+  <si>
+    <t>max_depth = 29, n_estimators = 401</t>
+  </si>
+  <si>
+    <t>learning_rate = 4.0009999999999994, n_estimators = 62</t>
+  </si>
+  <si>
+    <t>learning_rate=0.01, max_leaf_nodes=67,  n_estimators=496</t>
+  </si>
+  <si>
+    <t>min_child_weight=91, max_depth=158, gamma=3</t>
+  </si>
+  <si>
+    <t>RandomizedSearch</t>
+  </si>
+  <si>
+    <t>Bayesian search</t>
+  </si>
+  <si>
+    <t>min_child_weight=32, max_depth=137, gamma=1</t>
+  </si>
+  <si>
+    <t>reg_alpha=23.000999999999998, reg_lambda=26.000999999999998</t>
+  </si>
+  <si>
+    <t>C=4.01, epsilon=1.0001</t>
+  </si>
+  <si>
+    <t>max_depth=24, n_estimators=134</t>
+  </si>
+  <si>
+    <t>learning_rate=74.30396622508137, n_estimators=3</t>
+  </si>
+  <si>
+    <t>learning_rate=0.060798370922472, max_leaf_nodes=20, n_estimators=500</t>
+  </si>
+  <si>
+    <t>gamma=2, max_depth=166, min_child_weight=36</t>
+  </si>
+  <si>
+    <t>reg_alpha=21.79723530737549, reg_lambda=28.68886058041305</t>
+  </si>
+  <si>
+    <t>C=8.01, epsilon=1.0001</t>
+  </si>
+  <si>
+    <t>max_depth=24, n_estimators=373</t>
+  </si>
+  <si>
+    <t>learning_rate=22.290900339427473, n_estimators=195</t>
+  </si>
+  <si>
+    <t>learning_rate=0.12117251016429992, max_leaf_nodes=100, n_estimators=200</t>
+  </si>
+  <si>
+    <t>gamma=24, max_depth=25, min_child_weight=29</t>
+  </si>
+  <si>
+    <t>reg_alpha=21.555960793638025, reg_lambda=32.30155795773226</t>
+  </si>
+  <si>
+    <t>C=8.915292244200284, epsilon=2.846573570110612</t>
+  </si>
+  <si>
+    <t>max_depth=27, n_estimators=409</t>
+  </si>
+  <si>
+    <t>learning_rate=97.4842609938711, n_estimators=381</t>
+  </si>
+  <si>
+    <t>learning_rate=0.2780678795383295, max_leaf_nodes=10, n_estimators=200</t>
+  </si>
+  <si>
+    <t>gamma=24, max_depth=57, min_child_weight=190</t>
+  </si>
+  <si>
+    <t>reg_alpha=21.26604397101863, reg_lambda=23.680040880861604</t>
+  </si>
+  <si>
+    <t>C=5.150003902430793, epsilon=2.184783042590056</t>
+  </si>
+  <si>
+    <t>learning_rate=4.176043798991274, n_estimators=166</t>
+  </si>
+  <si>
+    <t>learning_rate=0.20161534787827692, max_leaf_nodes=10, n_estimators=500</t>
+  </si>
+  <si>
+    <t>gamma=10, max_depth=123, min_child_weight=86</t>
+  </si>
+  <si>
+    <t>reg_alpha=0.8173302116741544, reg_lambda=83.85066137218855</t>
+  </si>
+  <si>
+    <t>C=2.5680680987425695, epsilon=1.5560143445814183</t>
+  </si>
+  <si>
+    <t>max_depth=26, n_estimators=159</t>
+  </si>
+  <si>
+    <t>learning_rate=7.666027190016705, n_estimators=332</t>
+  </si>
+  <si>
+    <t>learning_rate=0.2037988789694174, max_leaf_nodes=10, n_estimators=50</t>
+  </si>
+  <si>
+    <t>gamma=1, max_depth=117, min_child_weight=195</t>
+  </si>
+  <si>
+    <t>reg_alpha=12.951305591821919, reg_lambda=3.5487756801904347</t>
+  </si>
+  <si>
+    <t>C=6.12886457907847, epsilon=1.7904027696737428</t>
+  </si>
+  <si>
+    <t>Parameters tuned and their values</t>
+  </si>
+  <si>
+    <t>max_depth=28, n_estimators=376</t>
+  </si>
+  <si>
+    <t>multiple OLS</t>
+  </si>
+  <si>
+    <t>BayesSearchCV</t>
+  </si>
+  <si>
+    <t>max_depth=30, n_estimators=409</t>
+  </si>
+  <si>
+    <t>gamma=12, max_depth=48, min_child_weight=163</t>
+  </si>
+  <si>
+    <t>reg_alpha=0.3554474514775055, reg_lambda=1.4383866603546833</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -119,8 +268,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,239 +589,1489 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD79483C-A641-0446-AF5C-0093210A88CF}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.749</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.42</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.377</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.435</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.193</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="J27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3.42</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="2">
+        <v>-9.01</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5.46</v>
+      </c>
+      <c r="G30" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.309</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2.29</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="J33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.377</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.628</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="J39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="2">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3.36</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="J41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="2">
+        <v>-0.25900000000000001</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1.81</v>
+      </c>
+      <c r="G49" s="1">
+        <v>5.05</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="5">
+        <v>-200</v>
+      </c>
+      <c r="F50" s="4">
+        <v>28.3</v>
+      </c>
+      <c r="G50" s="5">
+        <v>806</v>
+      </c>
+      <c r="H50" s="4">
+        <v>28.4</v>
+      </c>
+      <c r="J50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.312</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="J52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1.43</v>
+      </c>
+      <c r="J54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2.21</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="J56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="3">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="J58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2.97</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="J64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="G65" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="J65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="3">
+        <v>-1.6500000000000001E-2</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G66" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="H66" s="1">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="1">
+        <v>-5.47</v>
+      </c>
+      <c r="F67" s="1">
+        <v>6.13</v>
+      </c>
+      <c r="G67" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="H67" s="1">
+        <v>6.67</v>
+      </c>
+      <c r="J67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="G68" s="1">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="H68" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G69" s="1">
+        <v>3.59</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="J69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="G70" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="G71" s="1">
+        <v>2.97</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="J71" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="G72" s="1">
+        <v>2.97</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="J72" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="G73" s="1">
+        <v>3.36</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="J73" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0.498</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="G74" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="J74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="3">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="G75" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="H75" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="J75" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" s="3">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0.437</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0.434</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="J81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="2">
+        <v>-0.36</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="H82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="1">
+        <v>-1.04</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="H83" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="J83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="J85" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0.66600000000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0.442</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="J87" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J89" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="1">
+        <v>-6.82</v>
+      </c>
+      <c r="F90" s="1">
+        <v>2.41</v>
+      </c>
+      <c r="G90" s="1">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="H90" s="1">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>59</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0.504</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="J96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="2">
+        <v>-0.6</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="G97" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="5">
+        <v>-202</v>
+      </c>
+      <c r="F98" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="G98" s="5">
+        <v>302</v>
+      </c>
+      <c r="H98" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J98" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F99" s="2">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="G99" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="H99" s="1">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="F100" s="2">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0.107</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="J100" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="F101" s="2">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="H101" s="2">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="2">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0.627</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="H102" s="2">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="J102" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="2">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="F103" s="2">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="H103" s="2">
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J104" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
         <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="2">
+        <v>-0.84</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="H105" s="1">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J106" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
